--- a/simulation_data/one_step_algorithm/1s_error_level_1_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_1_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.00628658441981</v>
+        <v>89.9908306480577</v>
       </c>
       <c r="D2" t="n">
-        <v>0.217075106443178</v>
+        <v>0.2456649021934197</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.01127266714857</v>
+        <v>89.00185740775434</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2204060609336522</v>
+        <v>0.2652644554320997</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.99686984336911</v>
+        <v>87.99076147823229</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2384960154615378</v>
+        <v>0.2147136509339229</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.00077480516129</v>
+        <v>86.98961025402097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2121318634783483</v>
+        <v>0.2290834004252831</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.02763635883514</v>
+        <v>85.97892155284029</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2639883467759313</v>
+        <v>0.2362496733186606</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.05085601222859</v>
+        <v>84.98485095567257</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2228392713159897</v>
+        <v>0.2200941033844252</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.02951521796136</v>
+        <v>84.01092583043661</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2276047296580027</v>
+        <v>0.253603039062563</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.02328339287743</v>
+        <v>82.93115397649193</v>
       </c>
       <c r="D9" t="n">
-        <v>0.230375282850885</v>
+        <v>0.2263997869726376</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.99149325367358</v>
+        <v>81.98961568900307</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2409425485284305</v>
+        <v>0.237270238447797</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.01952352657348</v>
+        <v>81.02209390358723</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2721336456913999</v>
+        <v>0.253987761639366</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.0437278426068</v>
+        <v>79.9895607119655</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2942698667267716</v>
+        <v>0.258646294813405</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.9290701482139</v>
+        <v>78.98435744623357</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2628844581172048</v>
+        <v>0.22874175984047</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.94331787102222</v>
+        <v>78.03834834167998</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2675325997276243</v>
+        <v>0.2429413641585055</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.98551914998131</v>
+        <v>77.00436082187602</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2655826041008948</v>
+        <v>0.2677145993639302</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.03419962769254</v>
+        <v>76.02135332692309</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2711182385047285</v>
+        <v>0.2407917475787764</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.02765966094256</v>
+        <v>74.99296136169865</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2430150442189307</v>
+        <v>0.2349017882103447</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.99843692113961</v>
+        <v>73.97918113644847</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2820019072908164</v>
+        <v>0.2808729965103322</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.97993656141848</v>
+        <v>72.96262049961133</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2630594224746902</v>
+        <v>0.3099674077777111</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.97272171082838</v>
+        <v>72.01847103046322</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2493193705816547</v>
+        <v>0.292746415514594</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.96242132382434</v>
+        <v>70.98670374508792</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2529295993333898</v>
+        <v>0.3049760288442362</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.02824203458403</v>
+        <v>69.99232498998713</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2841605474362026</v>
+        <v>0.2450076311308982</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.02141757916824</v>
+        <v>69.0172585343752</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2417648969390735</v>
+        <v>0.2845753862907395</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.00181487238417</v>
+        <v>68.00068366185761</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2923043274741173</v>
+        <v>0.2981144838412301</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.98573226321342</v>
+        <v>67.01302424213</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3223498647474877</v>
+        <v>0.2916299977703565</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.98654292757956</v>
+        <v>65.92578070148436</v>
       </c>
       <c r="D26" t="n">
-        <v>0.310163574620457</v>
+        <v>0.2824741966780646</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.95466809704763</v>
+        <v>65.01365859326975</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2662306830284899</v>
+        <v>0.3116153648473377</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.98468336558639</v>
+        <v>63.99851569469522</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3209869725985853</v>
+        <v>0.2878165823855397</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.00654370745649</v>
+        <v>62.99819184286324</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2984578932898</v>
+        <v>0.3324179126794036</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.97157566807609</v>
+        <v>61.98097457262968</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2876535696993398</v>
+        <v>0.3186944040342348</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.04416909968231</v>
+        <v>61.0033320833537</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3093771865210536</v>
+        <v>0.3067176343585993</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.96569852951101</v>
+        <v>60.00473339284063</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3327494670274147</v>
+        <v>0.3166763414894697</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.00983885749734</v>
+        <v>58.99479507820703</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2804517740735367</v>
+        <v>0.3005302162487493</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.9644106286742</v>
+        <v>58.03641971750027</v>
       </c>
       <c r="D34" t="n">
-        <v>0.331279043997417</v>
+        <v>0.333903714747353</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.99535578642047</v>
+        <v>57.00762462509958</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3422910658910102</v>
+        <v>0.3328026949580095</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.06906710647611</v>
+        <v>56.05422537305617</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3224293249503188</v>
+        <v>0.3351266248864441</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.0120140182977</v>
+        <v>54.99608833404785</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3014499485413342</v>
+        <v>0.2969098113116893</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.98968927499494</v>
+        <v>54.00487280269274</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3330679199926803</v>
+        <v>0.2916050030884934</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.99420423396989</v>
+        <v>53.00375282732946</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3131353185555881</v>
+        <v>0.3550865424908742</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.0373277174243</v>
+        <v>52.02058001345254</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3201635285790536</v>
+        <v>0.3384454647668186</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.03219378912931</v>
+        <v>51.0265379486834</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3707459771486901</v>
+        <v>0.4053461145641738</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.98776383030297</v>
+        <v>49.93317353085379</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2865643050323605</v>
+        <v>0.2781497215452292</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.99036305085291</v>
+        <v>48.93745530737667</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3519176267347383</v>
+        <v>0.3336582451790713</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.98999046845795</v>
+        <v>48.03410447587775</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3293477161866552</v>
+        <v>0.3718508970316586</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.97406267054827</v>
+        <v>47.0150892650643</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3428652154162447</v>
+        <v>0.3152544455135255</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.02699401709792</v>
+        <v>46.01476527441978</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3591963404208598</v>
+        <v>0.3420807015999773</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.03609586550644</v>
+        <v>45.00637210730117</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3091698679560697</v>
+        <v>0.3308184478766817</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.97429561241326</v>
+        <v>44.02098630248394</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3481494453513126</v>
+        <v>0.3342836472403079</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.07311570374925</v>
+        <v>43.003685106662</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3832192285565383</v>
+        <v>0.3761708945690483</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.98642499001217</v>
+        <v>41.96978539248367</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3165636940190153</v>
+        <v>0.3387395076430281</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.97727928823809</v>
+        <v>41.01454133765125</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3684694976895768</v>
+        <v>0.371743738320215</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.04932361312751</v>
+        <v>40.01035345203977</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3671167781191843</v>
+        <v>0.4229571226070622</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.98656389185054</v>
+        <v>39.02050503071506</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3671897292556826</v>
+        <v>0.3941736111664769</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.9999132436859</v>
+        <v>38.11209340273157</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3519476763658842</v>
+        <v>0.3638220619341494</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.01969241545688</v>
+        <v>37.0105496776602</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3522297430965287</v>
+        <v>0.3414775199476999</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.98504487135185</v>
+        <v>35.91378515130598</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3516761293294368</v>
+        <v>0.3722232865007413</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.97955134543646</v>
+        <v>34.96491968628335</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3639915048723101</v>
+        <v>0.3638774085463573</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.00536315996251</v>
+        <v>33.98444568835016</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4311403305989195</v>
+        <v>0.3800356860490268</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.08025374383274</v>
+        <v>32.97294046943507</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3989598862352838</v>
+        <v>0.4148655897963663</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.97031758668213</v>
+        <v>31.95739074746747</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3840007828462514</v>
+        <v>0.3991823593880963</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.00009785633729</v>
+        <v>30.98553679167156</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3721698935227463</v>
+        <v>0.4019125456814597</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.06343951098626</v>
+        <v>30.00451547627821</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3692958055147166</v>
+        <v>0.3775945846074763</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.99353817540995</v>
+        <v>28.98428699763856</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3490312625352642</v>
+        <v>0.3587007312099474</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.95433381558379</v>
+        <v>28.05232437310168</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3558400729869228</v>
+        <v>0.433075903781696</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.96046865212017</v>
+        <v>27.04830444017682</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3949928422181781</v>
+        <v>0.4258896065588504</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.06718911106097</v>
+        <v>25.90714734345227</v>
       </c>
       <c r="D66" t="n">
-        <v>0.420122517963594</v>
+        <v>0.4070037728055889</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.03681812797605</v>
+        <v>25.09031439722246</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3886484684837122</v>
+        <v>0.3751884565891092</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.00097846901754</v>
+        <v>23.94979364554377</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4388133642941597</v>
+        <v>0.4288971203598729</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.03811888189544</v>
+        <v>23.07431433403591</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4050995821231649</v>
+        <v>0.413461679117496</v>
       </c>
     </row>
   </sheetData>
